--- a/app/Licenciatura_em_Producao_Pesqueira.xlsx
+++ b/app/Licenciatura_em_Producao_Pesqueira.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="279">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Carmen Pedro Cabral</t>
   </si>
   <si>
-    <t>Distrito de Zavala</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Olga Juliao Macuacua</t>
   </si>
   <si>
-    <t>Distrito de Chibuto</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -266,9 +260,6 @@
     <t>Ermelinda Lorino Nhatave</t>
   </si>
   <si>
-    <t>Cidade de Lichinga</t>
-  </si>
-  <si>
     <t>110100436615S</t>
   </si>
   <si>
@@ -293,9 +284,6 @@
     <t>Liverina Dani</t>
   </si>
   <si>
-    <t>Distrito de Morrumbala</t>
-  </si>
-  <si>
     <t>041302724620B</t>
   </si>
   <si>
@@ -320,9 +308,6 @@
     <t>Lidia Lisboa</t>
   </si>
   <si>
-    <t>Distrito de Morrumbene</t>
-  </si>
-  <si>
     <t>080100128818A</t>
   </si>
   <si>
@@ -347,9 +332,6 @@
     <t>Luisa Joao Macicame</t>
   </si>
   <si>
-    <t>Distrito de Vilanculos</t>
-  </si>
-  <si>
     <t>081301793813M</t>
   </si>
   <si>
@@ -374,9 +356,6 @@
     <t>Lucia Jose Buene</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>080500486914J</t>
   </si>
   <si>
@@ -428,9 +407,6 @@
     <t>Gloria Mavie</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110500809951A</t>
   </si>
   <si>
@@ -455,9 +431,6 @@
     <t>Flavia LuÍsa Manuel</t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>081001124545B</t>
   </si>
   <si>
@@ -482,9 +455,6 @@
     <t>Maria Da Graca Ribeiro</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090101670481P</t>
   </si>
   <si>
@@ -509,9 +479,6 @@
     <t>Gloria Michaque Mavie</t>
   </si>
   <si>
-    <t>Distrito de Inharrime</t>
-  </si>
-  <si>
     <t>080500608227N</t>
   </si>
   <si>
@@ -602,9 +569,6 @@
     <t>Drucilia Armando Jossai</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110200787311Q</t>
   </si>
   <si>
@@ -716,9 +680,6 @@
     <t>Ana Bachir Cassamo</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>O4O1OOO64558B</t>
   </si>
   <si>
@@ -740,9 +701,6 @@
     <t>Delfina Apatire Ali Amede</t>
   </si>
   <si>
-    <t>Cidade de Pemba</t>
-  </si>
-  <si>
     <t>020101368944C</t>
   </si>
   <si>
@@ -788,9 +746,6 @@
     <t>Elisa Juta Muchungue</t>
   </si>
   <si>
-    <t>Distrito de Chókwé</t>
-  </si>
-  <si>
     <t>060100078335F</t>
   </si>
   <si>
@@ -900,9 +855,6 @@
   </si>
   <si>
     <t>Elisa Riquixo</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Kampfumo</t>
   </si>
   <si>
     <t>110102254354N</t>
@@ -2192,7 +2144,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2208,7 +2160,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2224,7 +2176,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2240,7 +2192,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2256,7 +2208,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2271,9 +2223,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2281,7 +2231,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2292,7 +2242,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2301,7 +2251,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2313,7 +2263,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2321,7 +2271,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2417,7 +2367,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2460,7 +2410,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2787,7 +2737,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2803,7 +2753,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2819,7 +2769,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2835,7 +2785,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2851,7 +2801,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2866,9 +2816,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>135</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2876,7 +2824,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2887,7 +2835,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2896,7 +2844,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2908,7 +2856,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2916,7 +2864,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3012,7 +2960,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3055,7 +3003,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3382,7 +3330,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3398,7 +3346,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3414,7 +3362,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3430,7 +3378,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3446,7 +3394,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3461,9 +3409,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>144</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3471,7 +3417,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3482,7 +3428,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3491,7 +3437,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3503,7 +3449,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3511,7 +3457,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3607,7 +3553,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3650,7 +3596,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3977,7 +3923,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3993,7 +3939,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4009,7 +3955,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4025,7 +3971,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4041,7 +3987,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4056,9 +4002,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>153</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4066,7 +4010,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4077,7 +4021,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4086,7 +4030,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4098,7 +4042,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4106,7 +4050,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4202,7 +4146,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4245,7 +4189,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4572,7 +4516,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4588,7 +4532,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4604,7 +4548,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4620,7 +4564,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4636,7 +4580,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4651,9 +4595,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4661,7 +4603,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4672,7 +4614,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4681,7 +4623,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4693,7 +4635,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4701,7 +4643,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4797,7 +4739,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4840,7 +4782,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5167,7 +5109,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5183,7 +5125,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5199,7 +5141,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5215,7 +5157,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5231,7 +5173,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5246,9 +5188,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5256,7 +5196,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5267,7 +5207,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5276,7 +5216,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5288,7 +5228,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5296,7 +5236,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5392,7 +5332,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5435,7 +5375,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5762,7 +5702,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5778,7 +5718,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5794,7 +5734,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5810,7 +5750,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5826,7 +5766,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5841,9 +5781,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5851,7 +5789,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5862,7 +5800,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5871,7 +5809,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5883,7 +5821,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5891,7 +5829,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5987,7 +5925,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6030,7 +5968,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6357,7 +6295,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6373,7 +6311,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6389,7 +6327,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6405,7 +6343,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6421,7 +6359,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6436,9 +6374,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>184</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6446,7 +6382,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6457,7 +6393,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6466,7 +6402,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6478,7 +6414,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6486,7 +6422,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6582,7 +6518,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6625,7 +6561,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6952,7 +6888,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6968,7 +6904,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6984,7 +6920,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7000,7 +6936,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7016,7 +6952,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7031,9 +6967,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7041,7 +6975,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7052,7 +6986,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7061,7 +6995,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7073,7 +7007,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7081,7 +7015,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7177,7 +7111,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7220,7 +7154,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7547,7 +7481,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7563,7 +7497,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7579,7 +7513,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7595,7 +7529,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7611,7 +7545,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7626,9 +7560,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7636,7 +7568,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7647,7 +7579,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7656,7 +7588,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7668,7 +7600,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7676,7 +7608,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7772,7 +7704,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7815,7 +7747,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8221,9 +8153,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8231,7 +8161,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8242,7 +8172,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8251,7 +8181,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8263,7 +8193,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8271,7 +8201,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8367,7 +8297,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8410,7 +8340,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8737,7 +8667,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8753,7 +8683,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8769,7 +8699,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8785,7 +8715,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8801,7 +8731,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8816,9 +8746,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>153</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8826,7 +8754,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8837,7 +8765,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8846,7 +8774,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8858,7 +8786,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8866,7 +8794,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8962,7 +8890,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9005,7 +8933,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9332,7 +9260,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9348,7 +9276,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9364,7 +9292,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9380,7 +9308,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9396,7 +9324,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9411,9 +9339,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9421,7 +9347,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9432,7 +9358,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9441,7 +9367,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9453,7 +9379,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9461,7 +9387,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9557,7 +9483,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9600,7 +9526,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9927,7 +9853,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9943,7 +9869,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9959,7 +9885,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9975,7 +9901,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9991,7 +9917,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10006,9 +9932,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>222</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10016,7 +9940,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10027,7 +9951,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10036,7 +9960,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10048,7 +9972,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10056,7 +9980,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10152,7 +10076,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10195,7 +10119,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10522,7 +10446,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10538,7 +10462,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10554,7 +10478,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10570,7 +10494,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10586,7 +10510,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10601,9 +10525,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>230</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10611,7 +10533,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10622,7 +10544,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10631,7 +10553,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10643,7 +10565,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10651,7 +10573,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10747,7 +10669,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10790,7 +10712,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11117,7 +11039,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11133,7 +11055,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11149,7 +11071,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11165,7 +11087,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11181,7 +11103,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11196,9 +11118,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11206,7 +11126,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11217,7 +11137,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11226,7 +11146,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11238,7 +11158,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11246,7 +11166,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11342,7 +11262,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11385,7 +11305,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11712,7 +11632,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11728,7 +11648,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11744,7 +11664,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11760,7 +11680,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11776,7 +11696,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11791,9 +11711,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>246</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11801,7 +11719,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11812,7 +11730,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11821,7 +11739,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11833,7 +11751,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11841,7 +11759,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11937,7 +11855,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11980,7 +11898,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12307,7 +12225,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12323,7 +12241,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12339,7 +12257,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12355,7 +12273,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12371,7 +12289,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12386,9 +12304,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12396,7 +12312,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12407,7 +12323,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12416,7 +12332,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12428,7 +12344,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12436,7 +12352,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12532,7 +12448,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12575,7 +12491,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12902,7 +12818,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12918,7 +12834,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12934,7 +12850,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12950,7 +12866,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12966,7 +12882,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12981,9 +12897,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>153</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12991,7 +12905,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13002,7 +12916,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13011,7 +12925,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13023,7 +12937,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13127,7 +13041,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13170,7 +13084,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13497,7 +13411,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13513,7 +13427,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13529,7 +13443,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13545,7 +13459,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13561,7 +13475,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13576,9 +13490,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>230</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13586,7 +13498,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13597,7 +13509,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13606,7 +13518,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13618,7 +13530,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13626,7 +13538,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13722,7 +13634,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13765,7 +13677,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14092,7 +14004,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14108,7 +14020,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14124,7 +14036,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14140,7 +14052,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14156,7 +14068,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14171,9 +14083,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14181,7 +14091,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14192,7 +14102,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14201,7 +14111,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14213,7 +14123,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14221,7 +14131,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14317,7 +14227,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14360,7 +14270,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14687,7 +14597,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14703,7 +14613,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14719,7 +14629,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14735,7 +14645,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14751,7 +14661,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14766,9 +14676,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14776,7 +14684,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14787,7 +14695,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14796,7 +14704,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14808,7 +14716,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14816,7 +14724,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14912,7 +14820,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14955,7 +14863,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15282,7 +15190,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15298,7 +15206,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15314,7 +15222,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15330,7 +15238,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15346,7 +15254,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15361,9 +15269,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>284</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15371,7 +15277,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15382,7 +15288,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15391,7 +15297,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15403,7 +15309,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15411,7 +15317,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15507,7 +15413,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15550,7 +15456,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15877,7 +15783,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15893,7 +15799,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15909,7 +15815,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15925,7 +15831,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15941,7 +15847,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15956,9 +15862,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15966,7 +15870,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15977,7 +15881,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15986,7 +15890,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15998,7 +15902,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16006,7 +15910,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16102,7 +16006,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16145,7 +16049,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16528,7 +16432,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16544,7 +16448,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16560,7 +16464,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16576,7 +16480,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16592,7 +16496,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16607,9 +16511,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16617,7 +16519,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16628,7 +16530,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16637,7 +16539,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16649,7 +16551,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16657,7 +16559,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16753,7 +16655,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16796,7 +16698,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17123,7 +17025,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17139,7 +17041,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17155,7 +17057,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17171,7 +17073,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17187,7 +17089,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17202,9 +17104,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17212,7 +17112,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17223,7 +17123,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17232,7 +17132,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17244,7 +17144,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17252,7 +17152,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17348,7 +17248,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17391,7 +17291,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17718,7 +17618,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17734,7 +17634,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17750,7 +17650,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17766,7 +17666,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17782,7 +17682,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17797,9 +17697,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17807,7 +17705,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17818,7 +17716,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17827,7 +17725,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17839,7 +17737,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17847,7 +17745,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17943,7 +17841,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17986,7 +17884,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18313,7 +18211,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18329,7 +18227,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18345,7 +18243,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18361,7 +18259,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18377,7 +18275,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18392,9 +18290,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18402,7 +18298,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18413,7 +18309,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18422,7 +18318,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18434,7 +18330,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18442,7 +18338,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18538,7 +18434,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18581,7 +18477,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18908,7 +18804,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18924,7 +18820,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18940,7 +18836,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18956,7 +18852,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18972,7 +18868,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18987,9 +18883,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18997,7 +18891,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19008,7 +18902,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19017,7 +18911,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19029,7 +18923,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19037,7 +18931,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19133,7 +19027,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19176,7 +19070,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19503,7 +19397,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19519,7 +19413,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19535,7 +19429,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19551,7 +19445,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19567,7 +19461,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19582,9 +19476,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19592,7 +19484,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19603,7 +19495,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19612,7 +19504,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19624,7 +19516,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19632,7 +19524,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19728,7 +19620,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19771,7 +19663,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
